--- a/xls/VŠE-Fakulta mezinárodních vztahů_All.xlsx
+++ b/xls/VŠE-Fakulta mezinárodních vztahů_All.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1543" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="467">
   <si>
     <t>YEAR</t>
   </si>
@@ -73,6 +73,18 @@
     <t>VO</t>
   </si>
   <si>
+    <t>CATEGORY_RIV_SHORT</t>
+  </si>
+  <si>
+    <t>Record_FOS_category</t>
+  </si>
+  <si>
+    <t>IsLocalJournal</t>
+  </si>
+  <si>
+    <t>IsPredatoryJournal</t>
+  </si>
+  <si>
     <t>Jimp</t>
   </si>
   <si>
@@ -82,9 +94,6 @@
     <t>Potužáková, Zuzana, 4654528</t>
   </si>
   <si>
-    <t>Grmelová, Nicole, 9549382</t>
-  </si>
-  <si>
     <t>Müller, Karel B., 9567259</t>
   </si>
   <si>
@@ -124,9 +133,6 @@
     <t>Bolotov, Ilya, 8922217; Čajka, Radek, 5227720; Gajdušková, Kateřina, 6456766</t>
   </si>
   <si>
-    <t>Trávníčková, Zuzana, 1193651; Knotková, Vladimíra, 1136585</t>
-  </si>
-  <si>
     <t>Hinčica, Vít, 9826068</t>
   </si>
   <si>
@@ -175,9 +181,6 @@
     <t>Jankovic, Vukica, 7956649</t>
   </si>
   <si>
-    <t>Zemanová, Štěpánka, 3458423; Druláková, Radka, 8776628; Peterková, Jana, 3784703; Přikryl, Pavel, 7191146</t>
-  </si>
-  <si>
     <t>Čmakalová, Kateřina, 9101284</t>
   </si>
   <si>
@@ -214,9 +217,6 @@
     <t>Střecha, Michal, 8700281</t>
   </si>
   <si>
-    <t>Machoň, Miloslav, 9637133</t>
-  </si>
-  <si>
     <t>Hadrabová, Alena, 3422151; Šauer, Petr, 1489240</t>
   </si>
   <si>
@@ -289,9 +289,6 @@
     <t>Systémový přístup ke konceptu flexicurity</t>
   </si>
   <si>
-    <t>Nepoložení předběžné otázky Soudnímu dvoru Evropské unie jako porušení práva na spravedlivý proces</t>
-  </si>
-  <si>
     <t>Aktivní hranice a evropeizace veřejné sféry. Jak "stejný" může být i "jiný" a naopak</t>
   </si>
   <si>
@@ -331,9 +328,6 @@
     <t>The Economic Balance of the Czech Republic and Slovakia During the Economic Crisis</t>
   </si>
   <si>
-    <t>Ochrana životního prostředí v Arktidě jako mezinárodní režim</t>
-  </si>
-  <si>
     <t>Cukrovarnictví v Číně</t>
   </si>
   <si>
@@ -394,9 +388,6 @@
     <t>The System of the Geographical Indication - Important Component of the Politics of the Consumers' Protection in European Union</t>
   </si>
   <si>
-    <t>Zahraničněpolitické strategie malých států v současném mezinárodním prostředí</t>
-  </si>
-  <si>
     <t>Climate change in the context of global environmental governance possibilities</t>
   </si>
   <si>
@@ -457,9 +448,6 @@
     <t>Public Debt Structure As An Origin of Economic Instability</t>
   </si>
   <si>
-    <t>Vliv epistemických komunit na mezinárodní jednání o problému kosmické tříště</t>
-  </si>
-  <si>
     <t>Informations Aspects of Assessing Environmental Policy Implementation Effectiveness: Case of the Czech Republic</t>
   </si>
   <si>
@@ -604,9 +592,6 @@
     <t>0032-3233</t>
   </si>
   <si>
-    <t>0323-1844</t>
-  </si>
-  <si>
     <t>0049-1225</t>
   </si>
   <si>
@@ -733,9 +718,6 @@
     <t>Politická ekonomie</t>
   </si>
   <si>
-    <t>Mezinárodní vztahy</t>
-  </si>
-  <si>
     <t>Sociológia</t>
   </si>
   <si>
@@ -880,21 +862,18 @@
     <t>7 - MATEMATICKÉ VĚDY</t>
   </si>
   <si>
+    <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
+  </si>
+  <si>
+    <t>3 - SPOLEČENSKÉ VĚDY -  SHVc</t>
+  </si>
+  <si>
     <t>1 - SPOLEČENSKÉ, HUMANITNÍ a UMĚLECKÉ VĚDY -  SHVa</t>
   </si>
   <si>
-    <t>2 - SPOLEČENSKÉ VĚDY -  SHVb</t>
-  </si>
-  <si>
-    <t>3 - SPOLEČENSKÉ VĚDY -  SHVc</t>
-  </si>
-  <si>
     <t>4 - TECHNICKÉ a INFORMATICKÉ VĚDY</t>
   </si>
   <si>
-    <t>http://mv.iir.cz/article/view/1299</t>
-  </si>
-  <si>
     <t>http://www.sav.sk/journals/uploads/09240816Muller%20-%20zalomena%20OK.pdf</t>
   </si>
   <si>
@@ -940,9 +919,6 @@
     <t>http://www.amfiteatrueconomic.ro/RevistaDetalii_EN.aspx?Cod=51</t>
   </si>
   <si>
-    <t>https://mv.iir.cz/article/view/1318</t>
-  </si>
-  <si>
     <t>http://agriculturejournals.cz/publicFiles/47667.pdf</t>
   </si>
   <si>
@@ -1057,9 +1033,6 @@
     <t>00c47fe9b6003b23e914da8e80a88fa76bd7356c</t>
   </si>
   <si>
-    <t>063c870a516bab425f39c8ab5f0226afd243c6f2</t>
-  </si>
-  <si>
     <t>0834e2dcabbf2ec668135fa60c03f99481793f5f</t>
   </si>
   <si>
@@ -1099,9 +1072,6 @@
     <t>2959ea127dde0f42362a5b058536d5977fc917f6</t>
   </si>
   <si>
-    <t>2996ac90308c422660d71db0c11c5c9b08b4e94c</t>
-  </si>
-  <si>
     <t>2bbc8a7fb80ff38a86b2ccbad5a820bbf181bfd9</t>
   </si>
   <si>
@@ -1162,9 +1132,6 @@
     <t>58b088c30871eed5b2ba92a9be6d2c7946422d71</t>
   </si>
   <si>
-    <t>5cf8e6e277cbeb3ef498b95dabbf6c2c77971841</t>
-  </si>
-  <si>
     <t>5f4955a73b8a1d0544cc1092eefaec539e338fa1</t>
   </si>
   <si>
@@ -1225,9 +1192,6 @@
     <t>7f5832f6d54a9908955f8d72ea115e505bdf482f</t>
   </si>
   <si>
-    <t>8211a6f2dbd7014d83ca258c8e7fa3a17965fa25</t>
-  </si>
-  <si>
     <t>83d93366a08b5e08256ea8ad179f03677d99f715</t>
   </si>
   <si>
@@ -1381,24 +1345,24 @@
     <t>BB - Aplikovaná statistika, operační výzkum</t>
   </si>
   <si>
+    <t>AD - Politologie a politické vědy</t>
+  </si>
+  <si>
+    <t>AM - Pedagogika a školství</t>
+  </si>
+  <si>
+    <t>AH - Ekonomie</t>
+  </si>
+  <si>
+    <t>AE - Řízení, správa a administrativa</t>
+  </si>
+  <si>
+    <t>AI - Jazykověda</t>
+  </si>
+  <si>
     <t>AG - Právní vědy</t>
   </si>
   <si>
-    <t>AD - Politologie a politické vědy</t>
-  </si>
-  <si>
-    <t>AM - Pedagogika a školství</t>
-  </si>
-  <si>
-    <t>AH - Ekonomie</t>
-  </si>
-  <si>
-    <t>AE - Řízení, správa a administrativa</t>
-  </si>
-  <si>
-    <t>AI - Jazykověda</t>
-  </si>
-  <si>
     <t>GA - Zemědělská ekonomie</t>
   </si>
   <si>
@@ -1412,6 +1376,45 @@
   </si>
   <si>
     <t>VŠE-Vysoká škola ekonomická v Praze</t>
+  </si>
+  <si>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>AD</t>
+  </si>
+  <si>
+    <t>AM</t>
+  </si>
+  <si>
+    <t>AH</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>AI</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>JE</t>
+  </si>
+  <si>
+    <t>Natural Sciences</t>
+  </si>
+  <si>
+    <t>Social Sciences</t>
+  </si>
+  <si>
+    <t>Humanities and the Arts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engineering and Technology </t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1785,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S106"/>
+  <dimension ref="A1:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1793,7 +1796,7 @@
     <col min="8" max="8" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1851,13 +1854,25 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19">
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2">
         <v>2011</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>0.25</v>
@@ -1866,1210 +1881,1462 @@
         <v>4.0450001</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
         <v>90</v>
       </c>
       <c r="G2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="I2" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="K2" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="L2" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M2" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N2" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O2" t="s">
+        <v>442</v>
+      </c>
+      <c r="P2">
+        <v>61384399</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>451</v>
+      </c>
+      <c r="R2" t="s">
+        <v>452</v>
+      </c>
+      <c r="S2" t="s">
+        <v>453</v>
+      </c>
+      <c r="T2" t="s">
         <v>454</v>
       </c>
-      <c r="P2">
-        <v>61384399</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
         <v>463</v>
       </c>
-      <c r="R2" t="s">
-        <v>464</v>
-      </c>
-      <c r="S2" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19">
+      <c r="V2" t="b">
+        <v>1</v>
+      </c>
+      <c r="W2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3">
         <v>2014</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>15.267293</v>
+        <v>11.850283</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
         <v>91</v>
       </c>
       <c r="G3" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="I3" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K3" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="L3" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M3" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N3" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O3" t="s">
+        <v>443</v>
+      </c>
+      <c r="P3">
+        <v>61384399</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>451</v>
+      </c>
+      <c r="R3" t="s">
+        <v>452</v>
+      </c>
+      <c r="S3" t="s">
+        <v>453</v>
+      </c>
+      <c r="T3" t="s">
         <v>455</v>
       </c>
-      <c r="P3">
-        <v>61384399</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>463</v>
-      </c>
-      <c r="R3" t="s">
-        <v>464</v>
-      </c>
-      <c r="S3" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19">
+      <c r="U3" t="s">
+        <v>464</v>
+      </c>
+      <c r="V3" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4">
         <v>2014</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4">
-        <v>11.850283</v>
+        <v>30.798027</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F4" t="s">
         <v>92</v>
       </c>
       <c r="G4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H4" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="I4" t="s">
-        <v>289</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="L4" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M4" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N4" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O4" t="s">
+        <v>444</v>
+      </c>
+      <c r="P4">
+        <v>61384399</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>451</v>
+      </c>
+      <c r="R4" t="s">
+        <v>452</v>
+      </c>
+      <c r="S4" t="s">
+        <v>453</v>
+      </c>
+      <c r="T4" t="s">
         <v>456</v>
       </c>
-      <c r="P4">
-        <v>61384399</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>463</v>
-      </c>
-      <c r="R4" t="s">
-        <v>464</v>
-      </c>
-      <c r="S4" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19">
+      <c r="U4" t="s">
+        <v>464</v>
+      </c>
+      <c r="V4" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>30.798027</v>
+        <v>11.773</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F5" t="s">
         <v>93</v>
       </c>
       <c r="G5" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="I5" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K5" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="L5" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M5" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N5" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O5" t="s">
+        <v>445</v>
+      </c>
+      <c r="P5">
+        <v>61384399</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>451</v>
+      </c>
+      <c r="R5" t="s">
+        <v>452</v>
+      </c>
+      <c r="S5" t="s">
+        <v>453</v>
+      </c>
+      <c r="T5" t="s">
         <v>457</v>
       </c>
-      <c r="P5">
-        <v>61384399</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>463</v>
-      </c>
-      <c r="R5" t="s">
-        <v>464</v>
-      </c>
-      <c r="S5" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19">
+      <c r="U5" t="s">
+        <v>464</v>
+      </c>
+      <c r="V5" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6">
         <v>2012</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6">
-        <v>11.773</v>
+        <v>22.264</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
         <v>94</v>
       </c>
       <c r="G6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="I6" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="L6" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M6" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N6" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O6" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P6">
         <v>61384399</v>
       </c>
       <c r="Q6" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S6" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T6" t="s">
+        <v>457</v>
+      </c>
+      <c r="U6" t="s">
+        <v>464</v>
+      </c>
+      <c r="V6" t="b">
+        <v>1</v>
+      </c>
+      <c r="W6" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
-        <v>22.264</v>
+        <v>8.0000591</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
         <v>95</v>
       </c>
       <c r="G7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="L7" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M7" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N7" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O7" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P7">
         <v>61384399</v>
       </c>
       <c r="Q7" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R7" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S7" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T7" t="s">
+        <v>455</v>
+      </c>
+      <c r="U7" t="s">
+        <v>464</v>
+      </c>
+      <c r="V7" t="b">
+        <v>1</v>
+      </c>
+      <c r="W7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D8">
-        <v>8.0000591</v>
+        <v>25.404669</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F8" t="s">
         <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="H8" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="I8" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>287</v>
       </c>
       <c r="K8" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="L8" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M8" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N8" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O8" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P8">
         <v>61384399</v>
       </c>
       <c r="Q8" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R8" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T8" t="s">
+        <v>455</v>
+      </c>
+      <c r="U8" t="s">
+        <v>464</v>
+      </c>
+      <c r="V8" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9">
         <v>0.5</v>
       </c>
       <c r="D9">
-        <v>25.404669</v>
+        <v>7.939000099999999</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
         <v>97</v>
       </c>
       <c r="G9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="I9" t="s">
-        <v>289</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="K9" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="L9" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M9" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N9" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O9" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P9">
         <v>61384399</v>
       </c>
       <c r="Q9" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R9" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S9" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T9" t="s">
+        <v>457</v>
+      </c>
+      <c r="U9" t="s">
+        <v>464</v>
+      </c>
+      <c r="V9" t="b">
+        <v>1</v>
+      </c>
+      <c r="W9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="D10">
-        <v>7.939000099999999</v>
+        <v>2.1333559</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
         <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H10" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I10" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>288</v>
       </c>
       <c r="K10" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="L10" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M10" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N10" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O10" t="s">
+        <v>446</v>
+      </c>
+      <c r="P10">
+        <v>61384399</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>451</v>
+      </c>
+      <c r="R10" t="s">
+        <v>452</v>
+      </c>
+      <c r="S10" t="s">
+        <v>453</v>
+      </c>
+      <c r="T10" t="s">
         <v>458</v>
       </c>
-      <c r="P10">
-        <v>61384399</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>463</v>
-      </c>
-      <c r="R10" t="s">
-        <v>464</v>
-      </c>
-      <c r="S10" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19">
+      <c r="U10" t="s">
+        <v>464</v>
+      </c>
+      <c r="V10" t="b">
+        <v>1</v>
+      </c>
+      <c r="W10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11">
         <v>2014</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>0.25</v>
+        <v>0.80000001</v>
       </c>
       <c r="D11">
-        <v>2.1333559</v>
+        <v>9.273687400000002</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>99</v>
       </c>
       <c r="G11" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="H11" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I11" t="s">
-        <v>289</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K11" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="L11" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M11" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N11" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O11" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P11">
         <v>61384399</v>
       </c>
       <c r="Q11" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R11" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S11" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T11" t="s">
+        <v>455</v>
+      </c>
+      <c r="U11" t="s">
+        <v>464</v>
+      </c>
+      <c r="V11" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12">
         <v>2014</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>0.80000001</v>
+        <v>0.5</v>
       </c>
       <c r="D12">
-        <v>9.273687400000002</v>
+        <v>6.856813900000001</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
         <v>100</v>
       </c>
       <c r="G12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
         <v>242</v>
       </c>
       <c r="I12" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K12" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="L12" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M12" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N12" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O12" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P12">
         <v>61384399</v>
       </c>
       <c r="Q12" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R12" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T12" t="s">
+        <v>458</v>
+      </c>
+      <c r="U12" t="s">
+        <v>464</v>
+      </c>
+      <c r="V12" t="b">
+        <v>1</v>
+      </c>
+      <c r="W12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>6.856813900000001</v>
+        <v>21.731001</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F13" t="s">
         <v>101</v>
       </c>
       <c r="G13" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="I13" t="s">
+        <v>282</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>289</v>
       </c>
       <c r="K13" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L13" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M13" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N13" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O13" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P13">
         <v>61384399</v>
       </c>
       <c r="Q13" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R13" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S13" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T13" t="s">
+        <v>458</v>
+      </c>
+      <c r="U13" t="s">
+        <v>464</v>
+      </c>
+      <c r="V13" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D14">
-        <v>21.731001</v>
+        <v>6.697463000000001</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F14" t="s">
         <v>102</v>
       </c>
       <c r="G14" t="s">
-        <v>206</v>
+        <v>195</v>
       </c>
       <c r="H14" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="I14" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="K14" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="L14" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M14" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N14" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O14" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P14">
         <v>61384399</v>
       </c>
       <c r="Q14" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R14" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S14" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T14" t="s">
+        <v>458</v>
+      </c>
+      <c r="U14" t="s">
+        <v>464</v>
+      </c>
+      <c r="V14" t="b">
+        <v>1</v>
+      </c>
+      <c r="W14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
       <c r="A15">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C15">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>6.697463000000001</v>
+        <v>8.224</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
         <v>103</v>
       </c>
       <c r="G15" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I15" t="s">
-        <v>289</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="K15" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="L15" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M15" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N15" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O15" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P15">
         <v>61384399</v>
       </c>
       <c r="Q15" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R15" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S15" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T15" t="s">
+        <v>457</v>
+      </c>
+      <c r="U15" t="s">
+        <v>464</v>
+      </c>
+      <c r="V15" t="b">
+        <v>1</v>
+      </c>
+      <c r="W15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
       <c r="A16">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16">
-        <v>8.224</v>
+        <v>8.5334234</v>
       </c>
       <c r="E16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
         <v>104</v>
       </c>
       <c r="G16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="H16" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="I16" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K16" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="L16" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M16" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N16" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O16" t="s">
+        <v>446</v>
+      </c>
+      <c r="P16">
+        <v>61384399</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>451</v>
+      </c>
+      <c r="R16" t="s">
+        <v>452</v>
+      </c>
+      <c r="S16" t="s">
+        <v>453</v>
+      </c>
+      <c r="T16" t="s">
         <v>458</v>
       </c>
-      <c r="P16">
-        <v>61384399</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>463</v>
-      </c>
-      <c r="R16" t="s">
-        <v>464</v>
-      </c>
-      <c r="S16" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
+      <c r="U16" t="s">
+        <v>464</v>
+      </c>
+      <c r="V16" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>9.463999699999999</v>
+        <v>16.231001</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F17" t="s">
         <v>105</v>
       </c>
       <c r="G17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I17" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K17" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="L17" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M17" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N17" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O17" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P17">
         <v>61384399</v>
       </c>
       <c r="Q17" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R17" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S17" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T17" t="s">
+        <v>458</v>
+      </c>
+      <c r="U17" t="s">
+        <v>464</v>
+      </c>
+      <c r="V17" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18">
-        <v>8.5334234</v>
+        <v>8.670954699999999</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="F18" t="s">
         <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="H18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="I18" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="K18" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L18" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M18" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N18" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O18" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P18">
         <v>61384399</v>
       </c>
       <c r="Q18" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R18" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S18" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T18" t="s">
+        <v>457</v>
+      </c>
+      <c r="U18" t="s">
+        <v>464</v>
+      </c>
+      <c r="V18" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B19" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.54545456</v>
       </c>
       <c r="D19">
-        <v>16.231001</v>
+        <v>5.4694443</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
         <v>107</v>
       </c>
       <c r="G19" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H19" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="I19" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>292</v>
       </c>
       <c r="K19" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="L19" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M19" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N19" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O19" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P19">
         <v>61384399</v>
       </c>
       <c r="Q19" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R19" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S19" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T19" t="s">
+        <v>455</v>
+      </c>
+      <c r="U19" t="s">
+        <v>464</v>
+      </c>
+      <c r="V19" t="b">
+        <v>0</v>
+      </c>
+      <c r="W19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0.33333334</v>
       </c>
       <c r="D20">
-        <v>8.670954699999999</v>
+        <v>17.690001</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>108</v>
       </c>
       <c r="G20" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H20" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="I20" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="K20" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="L20" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M20" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N20" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O20" t="s">
+        <v>446</v>
+      </c>
+      <c r="P20">
+        <v>61384399</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>451</v>
+      </c>
+      <c r="R20" t="s">
+        <v>452</v>
+      </c>
+      <c r="S20" t="s">
+        <v>453</v>
+      </c>
+      <c r="T20" t="s">
         <v>458</v>
       </c>
-      <c r="P20">
-        <v>61384399</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>463</v>
-      </c>
-      <c r="R20" t="s">
-        <v>464</v>
-      </c>
-      <c r="S20" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
+      <c r="U20" t="s">
+        <v>464</v>
+      </c>
+      <c r="V20" t="b">
+        <v>0</v>
+      </c>
+      <c r="W20" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>0.54545456</v>
+        <v>0.5</v>
       </c>
       <c r="D21">
-        <v>5.4694443</v>
+        <v>8.656999600000001</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
         <v>109</v>
       </c>
       <c r="G21" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H21" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I21" t="s">
-        <v>289</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="K21" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="L21" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M21" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N21" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O21" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P21">
         <v>61384399</v>
       </c>
       <c r="Q21" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R21" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S21" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T21" t="s">
+        <v>457</v>
+      </c>
+      <c r="U21" t="s">
+        <v>464</v>
+      </c>
+      <c r="V21" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22">
         <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C22">
-        <v>0.33333334</v>
+        <v>1</v>
       </c>
       <c r="D22">
-        <v>17.690001</v>
+        <v>7.807000200000001</v>
       </c>
       <c r="E22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
         <v>110</v>
       </c>
       <c r="G22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="H22" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="I22" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="K22" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L22" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M22" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N22" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O22" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P22">
         <v>61384399</v>
       </c>
       <c r="Q22" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R22" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S22" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T22" t="s">
+        <v>457</v>
+      </c>
+      <c r="U22" t="s">
+        <v>464</v>
+      </c>
+      <c r="V22" t="b">
+        <v>1</v>
+      </c>
+      <c r="W22" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23">
         <v>2011</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D23">
-        <v>8.656999600000001</v>
+        <v>12.959</v>
       </c>
       <c r="E23" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F23" t="s">
         <v>111</v>
@@ -3078,1611 +3345,1947 @@
         <v>195</v>
       </c>
       <c r="H23" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I23" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K23" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="L23" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M23" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N23" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O23" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P23">
         <v>61384399</v>
       </c>
       <c r="Q23" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R23" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S23" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T23" t="s">
+        <v>457</v>
+      </c>
+      <c r="U23" t="s">
+        <v>464</v>
+      </c>
+      <c r="V23" t="b">
+        <v>1</v>
+      </c>
+      <c r="W23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
       <c r="A24">
         <v>2013</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>7.807000200000001</v>
+        <v>39.348999</v>
       </c>
       <c r="E24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
         <v>112</v>
       </c>
       <c r="G24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="H24" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I24" t="s">
-        <v>290</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>301</v>
+        <v>284</v>
       </c>
       <c r="K24" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="L24" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M24" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N24" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O24" t="s">
-        <v>458</v>
+        <v>447</v>
       </c>
       <c r="P24">
         <v>61384399</v>
       </c>
       <c r="Q24" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R24" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S24" t="s">
+        <v>453</v>
+      </c>
+      <c r="T24" t="s">
+        <v>459</v>
+      </c>
+      <c r="U24" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="25" spans="1:19">
+      <c r="V24" t="b">
+        <v>0</v>
+      </c>
+      <c r="W24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
       <c r="A25">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>12.959</v>
+        <v>47.556999</v>
       </c>
       <c r="E25" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
         <v>113</v>
       </c>
       <c r="G25" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H25" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="I25" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K25" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="L25" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M25" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N25" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O25" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P25">
         <v>61384399</v>
       </c>
       <c r="Q25" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R25" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S25" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T25" t="s">
+        <v>455</v>
+      </c>
+      <c r="U25" t="s">
+        <v>464</v>
+      </c>
+      <c r="V25" t="b">
+        <v>0</v>
+      </c>
+      <c r="W25" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
       <c r="A26">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D26">
-        <v>39.348999</v>
+        <v>6.4048209</v>
       </c>
       <c r="E26" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F26" t="s">
         <v>114</v>
       </c>
       <c r="G26" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H26" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="I26" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>295</v>
       </c>
       <c r="K26" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="L26" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M26" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N26" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O26" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="P26">
         <v>61384399</v>
       </c>
       <c r="Q26" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R26" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S26" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T26" t="s">
+        <v>458</v>
+      </c>
+      <c r="U26" t="s">
+        <v>464</v>
+      </c>
+      <c r="V26" t="b">
+        <v>0</v>
+      </c>
+      <c r="W26" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
       <c r="A27">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0.40000001</v>
       </c>
       <c r="D27">
-        <v>47.556999</v>
+        <v>4.7784033</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F27" t="s">
         <v>115</v>
       </c>
       <c r="G27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H27" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="I27" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>296</v>
       </c>
       <c r="K27" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="L27" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M27" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N27" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O27" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P27">
         <v>61384399</v>
       </c>
       <c r="Q27" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R27" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S27" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T27" t="s">
+        <v>458</v>
+      </c>
+      <c r="U27" t="s">
+        <v>464</v>
+      </c>
+      <c r="V27" t="b">
+        <v>1</v>
+      </c>
+      <c r="W27" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
       <c r="A28">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C28">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D28">
-        <v>6.4048209</v>
+        <v>9.609999699999999</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="F28" t="s">
         <v>116</v>
       </c>
       <c r="G28" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H28" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I28" t="s">
-        <v>289</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>302</v>
+        <v>284</v>
       </c>
       <c r="K28" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="L28" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M28" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N28" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O28" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P28">
         <v>61384399</v>
       </c>
       <c r="Q28" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R28" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S28" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T28" t="s">
+        <v>460</v>
+      </c>
+      <c r="U28" t="s">
+        <v>464</v>
+      </c>
+      <c r="V28" t="b">
+        <v>0</v>
+      </c>
+      <c r="W28" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
       <c r="A29">
         <v>2015</v>
       </c>
       <c r="B29" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C29">
-        <v>0.40000001</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>4.7784033</v>
+        <v>10.937435</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F29" t="s">
         <v>117</v>
       </c>
       <c r="G29" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="H29" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="I29" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="K29" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="L29" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M29" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N29" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O29" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P29">
         <v>61384399</v>
       </c>
       <c r="Q29" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R29" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S29" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T29" t="s">
+        <v>460</v>
+      </c>
+      <c r="U29" t="s">
+        <v>464</v>
+      </c>
+      <c r="V29" t="b">
+        <v>0</v>
+      </c>
+      <c r="W29" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
       <c r="A30">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B30" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30">
-        <v>9.609999699999999</v>
+        <v>13.517191</v>
       </c>
       <c r="E30" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F30" t="s">
         <v>118</v>
       </c>
       <c r="G30" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="I30" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="K30" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="L30" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M30" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N30" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O30" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P30">
         <v>61384399</v>
       </c>
       <c r="Q30" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R30" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T30" t="s">
+        <v>458</v>
+      </c>
+      <c r="U30" t="s">
+        <v>464</v>
+      </c>
+      <c r="V30" t="b">
+        <v>0</v>
+      </c>
+      <c r="W30" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
       <c r="A31">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B31" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31">
-        <v>10.937435</v>
+        <v>13.717</v>
       </c>
       <c r="E31" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F31" t="s">
         <v>119</v>
       </c>
       <c r="G31" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H31" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>304</v>
+        <v>282</v>
       </c>
       <c r="K31" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L31" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M31" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N31" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O31" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="P31">
         <v>61384399</v>
       </c>
       <c r="Q31" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R31" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S31" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T31" t="s">
+        <v>458</v>
+      </c>
+      <c r="U31" t="s">
+        <v>464</v>
+      </c>
+      <c r="V31" t="b">
+        <v>1</v>
+      </c>
+      <c r="W31" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
       <c r="A32">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32">
-        <v>13.517191</v>
+        <v>14.024</v>
       </c>
       <c r="E32" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F32" t="s">
         <v>120</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="H32" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="I32" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K32" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="L32" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M32" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N32" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O32" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P32">
         <v>61384399</v>
       </c>
       <c r="Q32" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R32" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S32" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T32" t="s">
+        <v>457</v>
+      </c>
+      <c r="U32" t="s">
+        <v>464</v>
+      </c>
+      <c r="V32" t="b">
+        <v>1</v>
+      </c>
+      <c r="W32" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
       <c r="A33">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>13.717</v>
+        <v>6.7201538</v>
       </c>
       <c r="E33" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
         <v>121</v>
       </c>
       <c r="G33" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="H33" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I33" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="K33" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="L33" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M33" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N33" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O33" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P33">
         <v>61384399</v>
       </c>
       <c r="Q33" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R33" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S33" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T33" t="s">
+        <v>457</v>
+      </c>
+      <c r="U33" t="s">
+        <v>464</v>
+      </c>
+      <c r="V33" t="b">
+        <v>1</v>
+      </c>
+      <c r="W33" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D34">
-        <v>14.024</v>
+        <v>1.3378606</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="F34" t="s">
         <v>122</v>
       </c>
       <c r="G34" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H34" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>299</v>
       </c>
       <c r="K34" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="L34" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M34" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N34" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O34" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P34">
         <v>61384399</v>
       </c>
       <c r="Q34" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R34" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S34" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T34" t="s">
+        <v>457</v>
+      </c>
+      <c r="U34" t="s">
+        <v>464</v>
+      </c>
+      <c r="V34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W34" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
       <c r="A35">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="D35">
-        <v>6.7201538</v>
+        <v>1.5712066</v>
       </c>
       <c r="E35" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="F35" t="s">
         <v>123</v>
       </c>
       <c r="G35" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="H35" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="I35" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K35" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="L35" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M35" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N35" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O35" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P35">
         <v>61384399</v>
       </c>
       <c r="Q35" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R35" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S35" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T35" t="s">
+        <v>457</v>
+      </c>
+      <c r="U35" t="s">
+        <v>464</v>
+      </c>
+      <c r="V35" t="b">
+        <v>0</v>
+      </c>
+      <c r="W35" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
       <c r="A36">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C36">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>1.3378606</v>
+        <v>12.959</v>
       </c>
       <c r="E36" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F36" t="s">
         <v>124</v>
       </c>
       <c r="G36" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="H36" t="s">
-        <v>259</v>
+        <v>237</v>
       </c>
       <c r="I36" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K36" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="L36" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M36" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N36" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O36" t="s">
+        <v>446</v>
+      </c>
+      <c r="P36">
+        <v>61384399</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>451</v>
+      </c>
+      <c r="R36" t="s">
+        <v>452</v>
+      </c>
+      <c r="S36" t="s">
+        <v>453</v>
+      </c>
+      <c r="T36" t="s">
         <v>458</v>
       </c>
-      <c r="P36">
-        <v>61384399</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>463</v>
-      </c>
-      <c r="R36" t="s">
-        <v>464</v>
-      </c>
-      <c r="S36" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19">
+      <c r="U36" t="s">
+        <v>464</v>
+      </c>
+      <c r="V36" t="b">
+        <v>1</v>
+      </c>
+      <c r="W36" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
       <c r="A37">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B37" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D37">
-        <v>1.5712066</v>
+        <v>10.287</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="F37" t="s">
         <v>125</v>
       </c>
       <c r="G37" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H37" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="I37" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K37" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="L37" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M37" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N37" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O37" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P37">
         <v>61384399</v>
       </c>
       <c r="Q37" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R37" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S37" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T37" t="s">
+        <v>455</v>
+      </c>
+      <c r="U37" t="s">
+        <v>464</v>
+      </c>
+      <c r="V37" t="b">
+        <v>1</v>
+      </c>
+      <c r="W37" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
       <c r="A38">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B38" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38">
-        <v>13.5225</v>
+        <v>8.670954699999999</v>
       </c>
       <c r="E38" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F38" t="s">
         <v>126</v>
       </c>
       <c r="G38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I38" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="K38" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M38" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N38" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O38" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P38">
         <v>61384399</v>
       </c>
       <c r="Q38" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R38" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S38" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T38" t="s">
+        <v>457</v>
+      </c>
+      <c r="U38" t="s">
+        <v>464</v>
+      </c>
+      <c r="V38" t="b">
+        <v>1</v>
+      </c>
+      <c r="W38" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
       <c r="A39">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B39" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39">
-        <v>12.959</v>
+        <v>6.932000200000001</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="F39" t="s">
         <v>127</v>
       </c>
       <c r="G39" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="H39" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="I39" t="s">
-        <v>289</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>309</v>
+        <v>283</v>
       </c>
       <c r="K39" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="L39" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M39" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N39" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O39" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P39">
         <v>61384399</v>
       </c>
       <c r="Q39" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R39" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S39" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T39" t="s">
+        <v>457</v>
+      </c>
+      <c r="U39" t="s">
+        <v>464</v>
+      </c>
+      <c r="V39" t="b">
+        <v>0</v>
+      </c>
+      <c r="W39" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
       <c r="A40">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B40" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>10.287</v>
+        <v>20.899916</v>
       </c>
       <c r="E40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F40" t="s">
         <v>128</v>
       </c>
       <c r="G40" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="H40" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="I40" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="K40" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L40" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M40" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N40" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O40" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P40">
         <v>61384399</v>
       </c>
       <c r="Q40" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R40" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S40" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T40" t="s">
+        <v>458</v>
+      </c>
+      <c r="U40" t="s">
+        <v>464</v>
+      </c>
+      <c r="V40" t="b">
+        <v>1</v>
+      </c>
+      <c r="W40" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:23">
       <c r="A41">
         <v>2014</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D41">
-        <v>8.670954699999999</v>
+        <v>5.953678599999999</v>
       </c>
       <c r="E41" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
         <v>129</v>
       </c>
       <c r="G41" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H41" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="I41" t="s">
-        <v>290</v>
-      </c>
-      <c r="J41" s="2" t="s">
-        <v>311</v>
+        <v>283</v>
       </c>
       <c r="K41" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="L41" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M41" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N41" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O41" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P41">
         <v>61384399</v>
       </c>
       <c r="Q41" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R41" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S41" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T41" t="s">
+        <v>457</v>
+      </c>
+      <c r="U41" t="s">
+        <v>464</v>
+      </c>
+      <c r="V41" t="b">
+        <v>0</v>
+      </c>
+      <c r="W41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23">
       <c r="A42">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="B42" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D42">
-        <v>6.932000200000001</v>
+        <v>9.316000000000001</v>
       </c>
       <c r="E42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="F42" t="s">
         <v>130</v>
       </c>
       <c r="G42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="H42" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="I42" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K42" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="L42" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M42" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N42" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O42" t="s">
+        <v>446</v>
+      </c>
+      <c r="P42">
+        <v>61384399</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>451</v>
+      </c>
+      <c r="R42" t="s">
+        <v>452</v>
+      </c>
+      <c r="S42" t="s">
+        <v>453</v>
+      </c>
+      <c r="T42" t="s">
         <v>458</v>
       </c>
-      <c r="P42">
-        <v>61384399</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>463</v>
-      </c>
-      <c r="R42" t="s">
-        <v>464</v>
-      </c>
-      <c r="S42" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19">
+      <c r="U42" t="s">
+        <v>464</v>
+      </c>
+      <c r="V42" t="b">
+        <v>1</v>
+      </c>
+      <c r="W42" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
       <c r="A43">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B43" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43">
-        <v>20.899916</v>
+        <v>8.670954699999999</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
         <v>131</v>
       </c>
       <c r="G43" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H43" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I43" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="K43" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="L43" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M43" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N43" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O43" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P43">
         <v>61384399</v>
       </c>
       <c r="Q43" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R43" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S43" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="44" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T43" t="s">
+        <v>457</v>
+      </c>
+      <c r="U43" t="s">
+        <v>464</v>
+      </c>
+      <c r="V43" t="b">
+        <v>1</v>
+      </c>
+      <c r="W43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:23">
       <c r="A44">
         <v>2014</v>
       </c>
       <c r="B44" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C44">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D44">
-        <v>5.953678599999999</v>
+        <v>8.670954699999999</v>
       </c>
       <c r="E44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F44" t="s">
         <v>132</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H44" t="s">
         <v>258</v>
       </c>
       <c r="I44" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>306</v>
       </c>
       <c r="K44" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="L44" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M44" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N44" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O44" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P44">
         <v>61384399</v>
       </c>
       <c r="Q44" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R44" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S44" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="45" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T44" t="s">
+        <v>457</v>
+      </c>
+      <c r="U44" t="s">
+        <v>464</v>
+      </c>
+      <c r="V44" t="b">
+        <v>1</v>
+      </c>
+      <c r="W44" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:23">
       <c r="A45">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>9.316000000000001</v>
+        <v>10.023419</v>
       </c>
       <c r="E45" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F45" t="s">
         <v>133</v>
       </c>
       <c r="G45" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="H45" t="s">
-        <v>263</v>
+        <v>241</v>
       </c>
       <c r="I45" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>307</v>
       </c>
       <c r="K45" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M45" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N45" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O45" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P45">
         <v>61384399</v>
       </c>
       <c r="Q45" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R45" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S45" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T45" t="s">
+        <v>458</v>
+      </c>
+      <c r="U45" t="s">
+        <v>464</v>
+      </c>
+      <c r="V45" t="b">
+        <v>1</v>
+      </c>
+      <c r="W45" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
       <c r="A46">
         <v>2014</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46">
-        <v>8.670954699999999</v>
+        <v>6.622258199999999</v>
       </c>
       <c r="E46" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
         <v>134</v>
       </c>
       <c r="G46" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H46" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="I46" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K46" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M46" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N46" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O46" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P46">
         <v>61384399</v>
       </c>
       <c r="Q46" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R46" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S46" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="47" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T46" t="s">
+        <v>457</v>
+      </c>
+      <c r="U46" t="s">
+        <v>464</v>
+      </c>
+      <c r="V46" t="b">
+        <v>1</v>
+      </c>
+      <c r="W46" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
       <c r="A47">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47">
-        <v>8.670954699999999</v>
+        <v>8.5334234</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
         <v>135</v>
       </c>
       <c r="G47" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H47" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="I47" t="s">
-        <v>290</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>314</v>
+        <v>282</v>
       </c>
       <c r="K47" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="L47" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M47" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N47" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O47" t="s">
+        <v>446</v>
+      </c>
+      <c r="P47">
+        <v>61384399</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>451</v>
+      </c>
+      <c r="R47" t="s">
+        <v>452</v>
+      </c>
+      <c r="S47" t="s">
+        <v>453</v>
+      </c>
+      <c r="T47" t="s">
         <v>458</v>
       </c>
-      <c r="P47">
-        <v>61384399</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>463</v>
-      </c>
-      <c r="R47" t="s">
-        <v>464</v>
-      </c>
-      <c r="S47" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="48" spans="1:19">
+      <c r="U47" t="s">
+        <v>464</v>
+      </c>
+      <c r="V47" t="b">
+        <v>1</v>
+      </c>
+      <c r="W47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48">
-        <v>10.023419</v>
+        <v>9.6072311</v>
       </c>
       <c r="E48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
         <v>136</v>
       </c>
       <c r="G48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H48" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I48" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K48" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="L48" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M48" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N48" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O48" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P48">
         <v>61384399</v>
       </c>
       <c r="Q48" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R48" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S48" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="49" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T48" t="s">
+        <v>458</v>
+      </c>
+      <c r="U48" t="s">
+        <v>464</v>
+      </c>
+      <c r="V48" t="b">
+        <v>0</v>
+      </c>
+      <c r="W48" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:23">
       <c r="A49">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>6.622258199999999</v>
+        <v>13.045776</v>
       </c>
       <c r="E49" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="F49" t="s">
         <v>137</v>
       </c>
       <c r="G49" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="H49" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="I49" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K49" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="L49" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M49" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N49" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O49" t="s">
+        <v>446</v>
+      </c>
+      <c r="P49">
+        <v>61384399</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>451</v>
+      </c>
+      <c r="R49" t="s">
+        <v>452</v>
+      </c>
+      <c r="S49" t="s">
+        <v>453</v>
+      </c>
+      <c r="T49" t="s">
         <v>458</v>
       </c>
-      <c r="P49">
-        <v>61384399</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>463</v>
-      </c>
-      <c r="R49" t="s">
-        <v>464</v>
-      </c>
-      <c r="S49" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="50" spans="1:19">
+      <c r="U49" t="s">
+        <v>464</v>
+      </c>
+      <c r="V49" t="b">
+        <v>0</v>
+      </c>
+      <c r="W49" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23">
       <c r="A50">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50">
-        <v>8.5334234</v>
+        <v>13.191</v>
       </c>
       <c r="E50" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="F50" t="s">
         <v>138</v>
       </c>
       <c r="G50" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="H50" t="s">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="I50" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K50" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="L50" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M50" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N50" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O50" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P50">
         <v>61384399</v>
       </c>
       <c r="Q50" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R50" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S50" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="51" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T50" t="s">
+        <v>457</v>
+      </c>
+      <c r="U50" t="s">
+        <v>464</v>
+      </c>
+      <c r="V50" t="b">
+        <v>1</v>
+      </c>
+      <c r="W50" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:23">
       <c r="A51">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51">
-        <v>9.6072311</v>
+        <v>8.224</v>
       </c>
       <c r="E51" t="s">
         <v>62</v>
@@ -4691,806 +5294,968 @@
         <v>139</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H51" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I51" t="s">
-        <v>289</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="K51" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="L51" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M51" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N51" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O51" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P51">
         <v>61384399</v>
       </c>
       <c r="Q51" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R51" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S51" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="52" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T51" t="s">
+        <v>457</v>
+      </c>
+      <c r="U51" t="s">
+        <v>464</v>
+      </c>
+      <c r="V51" t="b">
+        <v>1</v>
+      </c>
+      <c r="W51" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23">
       <c r="A52">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52">
-        <v>13.045776</v>
+        <v>9.512683900000001</v>
       </c>
       <c r="E52" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F52" t="s">
         <v>140</v>
       </c>
       <c r="G52" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H52" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="I52" t="s">
-        <v>289</v>
-      </c>
-      <c r="J52" s="2" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="K52" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="L52" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M52" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N52" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O52" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P52">
         <v>61384399</v>
       </c>
       <c r="Q52" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R52" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S52" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="53" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T52" t="s">
+        <v>455</v>
+      </c>
+      <c r="U52" t="s">
+        <v>464</v>
+      </c>
+      <c r="V52" t="b">
+        <v>1</v>
+      </c>
+      <c r="W52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23">
       <c r="A53">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B53" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53">
-        <v>13.191</v>
+        <v>14.505239</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
         <v>141</v>
       </c>
       <c r="G53" t="s">
-        <v>195</v>
+        <v>216</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="I53" t="s">
-        <v>290</v>
+        <v>284</v>
+      </c>
+      <c r="J53" s="2" t="s">
+        <v>311</v>
       </c>
       <c r="K53" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="L53" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N53" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O53" t="s">
-        <v>458</v>
+        <v>448</v>
       </c>
       <c r="P53">
         <v>61384399</v>
       </c>
       <c r="Q53" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R53" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S53" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="54" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T53" t="s">
+        <v>460</v>
+      </c>
+      <c r="U53" t="s">
+        <v>464</v>
+      </c>
+      <c r="V53" t="b">
+        <v>1</v>
+      </c>
+      <c r="W53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23">
       <c r="A54">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D54">
-        <v>8.224</v>
+        <v>9.9356489</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F54" t="s">
         <v>142</v>
       </c>
       <c r="G54" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="H54" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="I54" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J54" s="2" t="s">
+        <v>312</v>
       </c>
       <c r="K54" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="L54" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M54" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N54" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O54" t="s">
+        <v>446</v>
+      </c>
+      <c r="P54">
+        <v>61384399</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>451</v>
+      </c>
+      <c r="R54" t="s">
+        <v>452</v>
+      </c>
+      <c r="S54" t="s">
+        <v>453</v>
+      </c>
+      <c r="T54" t="s">
         <v>458</v>
       </c>
-      <c r="P54">
-        <v>61384399</v>
-      </c>
-      <c r="Q54" t="s">
-        <v>463</v>
-      </c>
-      <c r="R54" t="s">
-        <v>464</v>
-      </c>
-      <c r="S54" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="55" spans="1:19">
+      <c r="U54" t="s">
+        <v>464</v>
+      </c>
+      <c r="V54" t="b">
+        <v>1</v>
+      </c>
+      <c r="W54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23">
       <c r="A55">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B55" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55">
-        <v>9.512683900000001</v>
+        <v>9.6072311</v>
       </c>
       <c r="E55" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="F55" t="s">
         <v>143</v>
       </c>
       <c r="G55" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="H55" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="I55" t="s">
-        <v>289</v>
+        <v>282</v>
+      </c>
+      <c r="J55" s="2" t="s">
+        <v>313</v>
       </c>
       <c r="K55" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="L55" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M55" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N55" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O55" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P55">
         <v>61384399</v>
       </c>
       <c r="Q55" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R55" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S55" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T55" t="s">
+        <v>458</v>
+      </c>
+      <c r="U55" t="s">
+        <v>464</v>
+      </c>
+      <c r="V55" t="b">
+        <v>0</v>
+      </c>
+      <c r="W55" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23">
       <c r="A56">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D56">
-        <v>14.505239</v>
+        <v>4.77</v>
       </c>
       <c r="E56" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
         <v>144</v>
       </c>
       <c r="G56" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H56" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="I56" t="s">
-        <v>288</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="K56" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M56" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N56" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O56" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P56">
         <v>61384399</v>
       </c>
       <c r="Q56" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R56" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S56" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="57" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T56" t="s">
+        <v>457</v>
+      </c>
+      <c r="U56" t="s">
+        <v>464</v>
+      </c>
+      <c r="V56" t="b">
+        <v>0</v>
+      </c>
+      <c r="W56" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23">
       <c r="A57">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B57" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C57">
-        <v>0.66666669</v>
+        <v>0.80000001</v>
       </c>
       <c r="D57">
-        <v>9.9356489</v>
+        <v>7.6857848</v>
       </c>
       <c r="E57" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
         <v>145</v>
       </c>
       <c r="G57" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="H57" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
       <c r="I57" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="K57" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N57" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O57" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P57">
         <v>61384399</v>
       </c>
       <c r="Q57" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R57" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S57" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T57" t="s">
+        <v>458</v>
+      </c>
+      <c r="U57" t="s">
+        <v>464</v>
+      </c>
+      <c r="V57" t="b">
+        <v>0</v>
+      </c>
+      <c r="W57" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23">
       <c r="A58">
         <v>2015</v>
       </c>
       <c r="B58" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58">
-        <v>9.6072311</v>
+        <v>31.022646</v>
       </c>
       <c r="E58" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F58" t="s">
         <v>146</v>
       </c>
       <c r="G58" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="H58" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I58" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="K58" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="L58" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M58" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N58" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O58" t="s">
-        <v>459</v>
+        <v>448</v>
       </c>
       <c r="P58">
         <v>61384399</v>
       </c>
       <c r="Q58" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R58" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S58" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T58" t="s">
+        <v>460</v>
+      </c>
+      <c r="U58" t="s">
+        <v>464</v>
+      </c>
+      <c r="V58" t="b">
+        <v>0</v>
+      </c>
+      <c r="W58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23">
       <c r="A59">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B59" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C59">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D59">
-        <v>13.5225</v>
+        <v>8.7495441</v>
       </c>
       <c r="E59" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F59" t="s">
         <v>147</v>
       </c>
       <c r="G59" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>265</v>
       </c>
       <c r="I59" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K59" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="L59" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M59" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N59" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O59" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P59">
         <v>61384399</v>
       </c>
       <c r="Q59" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R59" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S59" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T59" t="s">
+        <v>458</v>
+      </c>
+      <c r="U59" t="s">
+        <v>464</v>
+      </c>
+      <c r="V59" t="b">
+        <v>1</v>
+      </c>
+      <c r="W59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23">
       <c r="A60">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B60" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="D60">
-        <v>4.77</v>
+        <v>13.766</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
         <v>148</v>
       </c>
       <c r="G60" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H60" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="I60" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="K60" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="L60" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M60" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N60" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O60" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P60">
         <v>61384399</v>
       </c>
       <c r="Q60" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R60" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S60" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T60" t="s">
+        <v>455</v>
+      </c>
+      <c r="U60" t="s">
+        <v>464</v>
+      </c>
+      <c r="V60" t="b">
+        <v>0</v>
+      </c>
+      <c r="W60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23">
       <c r="A61">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="B61" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C61">
-        <v>0.80000001</v>
+        <v>1</v>
       </c>
       <c r="D61">
-        <v>7.6857848</v>
+        <v>22.264</v>
       </c>
       <c r="E61" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F61" t="s">
         <v>149</v>
       </c>
       <c r="G61" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="H61" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="I61" t="s">
-        <v>289</v>
-      </c>
-      <c r="J61" s="2" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="K61" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="L61" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M61" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N61" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O61" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P61">
         <v>61384399</v>
       </c>
       <c r="Q61" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R61" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S61" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T61" t="s">
+        <v>457</v>
+      </c>
+      <c r="U61" t="s">
+        <v>464</v>
+      </c>
+      <c r="V61" t="b">
+        <v>1</v>
+      </c>
+      <c r="W61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23">
       <c r="A62">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B62" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>31.022646</v>
+        <v>9.9409609</v>
       </c>
       <c r="E62" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F62" t="s">
         <v>150</v>
       </c>
       <c r="G62" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="H62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="I62" t="s">
-        <v>288</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="K62" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="L62" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M62" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N62" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O62" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="P62">
         <v>61384399</v>
       </c>
       <c r="Q62" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R62" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S62" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T62" t="s">
+        <v>457</v>
+      </c>
+      <c r="U62" t="s">
+        <v>464</v>
+      </c>
+      <c r="V62" t="b">
+        <v>0</v>
+      </c>
+      <c r="W62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23">
       <c r="A63">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C63">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D63">
-        <v>8.7495441</v>
+        <v>12.959</v>
       </c>
       <c r="E63" t="s">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="F63" t="s">
         <v>151</v>
       </c>
       <c r="G63" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H63" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="I63" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K63" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="L63" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M63" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N63" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O63" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P63">
         <v>61384399</v>
       </c>
       <c r="Q63" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R63" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S63" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T63" t="s">
+        <v>457</v>
+      </c>
+      <c r="U63" t="s">
+        <v>464</v>
+      </c>
+      <c r="V63" t="b">
+        <v>1</v>
+      </c>
+      <c r="W63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23">
       <c r="A64">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B64" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D64">
-        <v>13.766</v>
+        <v>19.618</v>
       </c>
       <c r="E64" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F64" t="s">
         <v>152</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="I64" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K64" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="L64" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M64" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N64" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O64" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P64">
         <v>61384399</v>
       </c>
       <c r="Q64" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R64" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S64" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T64" t="s">
+        <v>457</v>
+      </c>
+      <c r="U64" t="s">
+        <v>464</v>
+      </c>
+      <c r="V64" t="b">
+        <v>0</v>
+      </c>
+      <c r="W64" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65">
         <v>2012</v>
       </c>
       <c r="B65" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65">
-        <v>22.264</v>
+        <v>11.9</v>
       </c>
       <c r="E65" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s">
         <v>153</v>
@@ -5499,2457 +6264,2687 @@
         <v>200</v>
       </c>
       <c r="H65" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I65" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="L65" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O65" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P65">
         <v>61384399</v>
       </c>
       <c r="Q65" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R65" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S65" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T65" t="s">
+        <v>457</v>
+      </c>
+      <c r="U65" t="s">
+        <v>464</v>
+      </c>
+      <c r="V65" t="b">
+        <v>1</v>
+      </c>
+      <c r="W65" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66">
-        <v>9.9409609</v>
+        <v>8.0000591</v>
       </c>
       <c r="E66" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F66" t="s">
         <v>154</v>
       </c>
       <c r="G66" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="I66" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>316</v>
       </c>
       <c r="K66" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="L66" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M66" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N66" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O66" t="s">
+        <v>446</v>
+      </c>
+      <c r="P66">
+        <v>61384399</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>451</v>
+      </c>
+      <c r="R66" t="s">
+        <v>452</v>
+      </c>
+      <c r="S66" t="s">
+        <v>453</v>
+      </c>
+      <c r="T66" t="s">
         <v>458</v>
       </c>
-      <c r="P66">
-        <v>61384399</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>463</v>
-      </c>
-      <c r="R66" t="s">
-        <v>464</v>
-      </c>
-      <c r="S66" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+      <c r="U66" t="s">
+        <v>464</v>
+      </c>
+      <c r="V66" t="b">
+        <v>0</v>
+      </c>
+      <c r="W66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B67" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67">
-        <v>12.959</v>
+        <v>9.612999900000002</v>
       </c>
       <c r="E67" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F67" t="s">
         <v>155</v>
       </c>
       <c r="G67" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H67" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I67" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K67" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="L67" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M67" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N67" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O67" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P67">
         <v>61384399</v>
       </c>
       <c r="Q67" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R67" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S67" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T67" t="s">
+        <v>457</v>
+      </c>
+      <c r="U67" t="s">
+        <v>464</v>
+      </c>
+      <c r="V67" t="b">
+        <v>1</v>
+      </c>
+      <c r="W67" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C68">
-        <v>0.80000001</v>
+        <v>1</v>
       </c>
       <c r="D68">
-        <v>19.618</v>
+        <v>7.807000200000001</v>
       </c>
       <c r="E68" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
         <v>156</v>
       </c>
       <c r="G68" t="s">
-        <v>225</v>
+        <v>199</v>
       </c>
       <c r="H68" t="s">
-        <v>273</v>
+        <v>241</v>
       </c>
       <c r="I68" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J68" s="2" t="s">
+        <v>317</v>
       </c>
       <c r="K68" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="L68" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M68" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N68" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O68" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P68">
         <v>61384399</v>
       </c>
       <c r="Q68" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R68" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S68" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T68" t="s">
+        <v>457</v>
+      </c>
+      <c r="U68" t="s">
+        <v>464</v>
+      </c>
+      <c r="V68" t="b">
+        <v>1</v>
+      </c>
+      <c r="W68" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C69">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D69">
-        <v>11.9</v>
+        <v>6.0425248</v>
       </c>
       <c r="E69" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
         <v>157</v>
       </c>
       <c r="G69" t="s">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="I69" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J69" s="2" t="s">
+        <v>318</v>
       </c>
       <c r="K69" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="L69" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M69" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N69" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O69" t="s">
+        <v>446</v>
+      </c>
+      <c r="P69">
+        <v>61384399</v>
+      </c>
+      <c r="Q69" t="s">
+        <v>451</v>
+      </c>
+      <c r="R69" t="s">
+        <v>452</v>
+      </c>
+      <c r="S69" t="s">
+        <v>453</v>
+      </c>
+      <c r="T69" t="s">
         <v>458</v>
       </c>
-      <c r="P69">
-        <v>61384399</v>
-      </c>
-      <c r="Q69" t="s">
-        <v>463</v>
-      </c>
-      <c r="R69" t="s">
-        <v>464</v>
-      </c>
-      <c r="S69" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+      <c r="U69" t="s">
+        <v>464</v>
+      </c>
+      <c r="V69" t="b">
+        <v>0</v>
+      </c>
+      <c r="W69" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C70">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D70">
-        <v>8.0000591</v>
+        <v>7.6857848</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F70" t="s">
         <v>158</v>
       </c>
       <c r="G70" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="H70" t="s">
-        <v>274</v>
+        <v>248</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K70" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="L70" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M70" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N70" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O70" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P70">
         <v>61384399</v>
       </c>
       <c r="Q70" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R70" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S70" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T70" t="s">
+        <v>458</v>
+      </c>
+      <c r="U70" t="s">
+        <v>464</v>
+      </c>
+      <c r="V70" t="b">
+        <v>0</v>
+      </c>
+      <c r="W70" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71">
-        <v>9.612999900000002</v>
+        <v>14.961657</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="F71" t="s">
         <v>159</v>
       </c>
       <c r="G71" t="s">
-        <v>200</v>
+        <v>223</v>
       </c>
       <c r="H71" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="I71" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J71" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="K71" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="L71" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M71" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N71" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O71" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P71">
         <v>61384399</v>
       </c>
       <c r="Q71" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R71" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S71" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T71" t="s">
+        <v>457</v>
+      </c>
+      <c r="U71" t="s">
+        <v>464</v>
+      </c>
+      <c r="V71" t="b">
+        <v>1</v>
+      </c>
+      <c r="W71" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72">
-        <v>7.807000200000001</v>
+        <v>9.5057507</v>
       </c>
       <c r="E72" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
         <v>160</v>
       </c>
       <c r="G72" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="H72" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="I72" t="s">
-        <v>290</v>
-      </c>
-      <c r="J72" s="2" t="s">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="K72" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="L72" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M72" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N72" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O72" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P72">
         <v>61384399</v>
       </c>
       <c r="Q72" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R72" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S72" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T72" t="s">
+        <v>455</v>
+      </c>
+      <c r="U72" t="s">
+        <v>464</v>
+      </c>
+      <c r="V72" t="b">
+        <v>1</v>
+      </c>
+      <c r="W72" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="D73">
-        <v>6.0425248</v>
+        <v>9.612999900000002</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F73" t="s">
         <v>161</v>
       </c>
       <c r="G73" t="s">
-        <v>227</v>
+        <v>195</v>
       </c>
       <c r="H73" t="s">
-        <v>275</v>
+        <v>237</v>
       </c>
       <c r="I73" t="s">
-        <v>289</v>
-      </c>
-      <c r="J73" s="2" t="s">
-        <v>326</v>
+        <v>283</v>
       </c>
       <c r="K73" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L73" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M73" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N73" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O73" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P73">
         <v>61384399</v>
       </c>
       <c r="Q73" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R73" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S73" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T73" t="s">
+        <v>457</v>
+      </c>
+      <c r="U73" t="s">
+        <v>464</v>
+      </c>
+      <c r="V73" t="b">
+        <v>1</v>
+      </c>
+      <c r="W73" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74">
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C74">
-        <v>0.80000001</v>
+        <v>0.5</v>
       </c>
       <c r="D74">
-        <v>7.6857848</v>
+        <v>6.9902415</v>
       </c>
       <c r="E74" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F74" t="s">
         <v>162</v>
       </c>
       <c r="G74" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="H74" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="I74" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="K74" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L74" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M74" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N74" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O74" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P74">
         <v>61384399</v>
       </c>
       <c r="Q74" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R74" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S74" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T74" t="s">
+        <v>457</v>
+      </c>
+      <c r="U74" t="s">
+        <v>464</v>
+      </c>
+      <c r="V74" t="b">
+        <v>1</v>
+      </c>
+      <c r="W74" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75">
         <v>2014</v>
       </c>
       <c r="B75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D75">
-        <v>14.961657</v>
+        <v>8.7495441</v>
       </c>
       <c r="E75" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="F75" t="s">
         <v>163</v>
       </c>
       <c r="G75" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="H75" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="I75" t="s">
-        <v>290</v>
-      </c>
-      <c r="J75" s="2" t="s">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="K75" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="L75" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M75" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N75" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O75" t="s">
+        <v>446</v>
+      </c>
+      <c r="P75">
+        <v>61384399</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>451</v>
+      </c>
+      <c r="R75" t="s">
+        <v>452</v>
+      </c>
+      <c r="S75" t="s">
+        <v>453</v>
+      </c>
+      <c r="T75" t="s">
         <v>458</v>
       </c>
-      <c r="P75">
-        <v>61384399</v>
-      </c>
-      <c r="Q75" t="s">
-        <v>463</v>
-      </c>
-      <c r="R75" t="s">
-        <v>464</v>
-      </c>
-      <c r="S75" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19">
+      <c r="U75" t="s">
+        <v>464</v>
+      </c>
+      <c r="V75" t="b">
+        <v>1</v>
+      </c>
+      <c r="W75" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B76" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76">
-        <v>9.5057507</v>
+        <v>12.959</v>
       </c>
       <c r="E76" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F76" t="s">
         <v>164</v>
       </c>
       <c r="G76" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="H76" t="s">
-        <v>277</v>
+        <v>237</v>
       </c>
       <c r="I76" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K76" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="L76" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M76" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N76" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O76" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P76">
         <v>61384399</v>
       </c>
       <c r="Q76" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R76" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S76" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T76" t="s">
+        <v>457</v>
+      </c>
+      <c r="U76" t="s">
+        <v>464</v>
+      </c>
+      <c r="V76" t="b">
+        <v>1</v>
+      </c>
+      <c r="W76" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C77">
-        <v>1</v>
+        <v>0.5714286</v>
       </c>
       <c r="D77">
-        <v>9.612999900000002</v>
+        <v>3.8400881</v>
       </c>
       <c r="E77" t="s">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="F77" t="s">
         <v>165</v>
       </c>
       <c r="G77" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H77" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I77" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J77" s="2" t="s">
+        <v>322</v>
       </c>
       <c r="K77" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="L77" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M77" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N77" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O77" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="P77">
         <v>61384399</v>
       </c>
       <c r="Q77" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R77" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S77" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T77" t="s">
+        <v>461</v>
+      </c>
+      <c r="U77" t="s">
+        <v>464</v>
+      </c>
+      <c r="V77" t="b">
+        <v>1</v>
+      </c>
+      <c r="W77" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78">
         <v>2015</v>
       </c>
       <c r="B78" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C78">
-        <v>0.5</v>
+        <v>0.66666669</v>
       </c>
       <c r="D78">
-        <v>6.9902415</v>
+        <v>6.697463000000001</v>
       </c>
       <c r="E78" t="s">
-        <v>75</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
         <v>166</v>
       </c>
       <c r="G78" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H78" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I78" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J78" s="2" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="K78" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="L78" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M78" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N78" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O78" t="s">
+        <v>446</v>
+      </c>
+      <c r="P78">
+        <v>61384399</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>451</v>
+      </c>
+      <c r="R78" t="s">
+        <v>452</v>
+      </c>
+      <c r="S78" t="s">
+        <v>453</v>
+      </c>
+      <c r="T78" t="s">
         <v>458</v>
       </c>
-      <c r="P78">
-        <v>61384399</v>
-      </c>
-      <c r="Q78" t="s">
-        <v>463</v>
-      </c>
-      <c r="R78" t="s">
-        <v>464</v>
-      </c>
-      <c r="S78" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19">
+      <c r="U78" t="s">
+        <v>464</v>
+      </c>
+      <c r="V78" t="b">
+        <v>1</v>
+      </c>
+      <c r="W78" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C79">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D79">
-        <v>8.7495441</v>
+        <v>13.766</v>
       </c>
       <c r="E79" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="F79" t="s">
         <v>167</v>
       </c>
       <c r="G79" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="H79" t="s">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="I79" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K79" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="L79" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M79" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N79" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O79" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P79">
         <v>61384399</v>
       </c>
       <c r="Q79" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R79" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S79" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T79" t="s">
+        <v>455</v>
+      </c>
+      <c r="U79" t="s">
+        <v>464</v>
+      </c>
+      <c r="V79" t="b">
+        <v>0</v>
+      </c>
+      <c r="W79" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23">
       <c r="A80">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B80" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C80">
-        <v>1</v>
+        <v>0.66666669</v>
       </c>
       <c r="D80">
-        <v>12.959</v>
+        <v>7.177334299999999</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="F80" t="s">
         <v>168</v>
       </c>
       <c r="G80" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H80" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I80" t="s">
-        <v>290</v>
+        <v>283</v>
+      </c>
+      <c r="J80" s="2" t="s">
+        <v>324</v>
       </c>
       <c r="K80" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="L80" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M80" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N80" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O80" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P80">
         <v>61384399</v>
       </c>
       <c r="Q80" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R80" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S80" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T80" t="s">
+        <v>457</v>
+      </c>
+      <c r="U80" t="s">
+        <v>464</v>
+      </c>
+      <c r="V80" t="b">
+        <v>1</v>
+      </c>
+      <c r="W80" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23">
       <c r="A81">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C81">
-        <v>0.5714286</v>
+        <v>1</v>
       </c>
       <c r="D81">
-        <v>3.8400881</v>
+        <v>6.622258199999999</v>
       </c>
       <c r="E81" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
         <v>169</v>
       </c>
       <c r="G81" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H81" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I81" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="J81" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="K81" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L81" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M81" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N81" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O81" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
       <c r="P81">
         <v>61384399</v>
       </c>
       <c r="Q81" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R81" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S81" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T81" t="s">
+        <v>457</v>
+      </c>
+      <c r="U81" t="s">
+        <v>464</v>
+      </c>
+      <c r="V81" t="b">
+        <v>1</v>
+      </c>
+      <c r="W81" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23">
       <c r="A82">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B82" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C82">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D82">
-        <v>6.697463000000001</v>
+        <v>13.124317</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F82" t="s">
         <v>170</v>
       </c>
       <c r="G82" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="H82" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="I82" t="s">
-        <v>289</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>331</v>
+        <v>282</v>
       </c>
       <c r="K82" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="L82" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M82" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N82" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O82" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P82">
         <v>61384399</v>
       </c>
       <c r="Q82" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R82" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S82" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T82" t="s">
+        <v>458</v>
+      </c>
+      <c r="U82" t="s">
+        <v>464</v>
+      </c>
+      <c r="V82" t="b">
+        <v>1</v>
+      </c>
+      <c r="W82" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23">
       <c r="A83">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B83" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C83">
         <v>1</v>
       </c>
       <c r="D83">
-        <v>13.766</v>
+        <v>6.622258199999999</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
         <v>171</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="H83" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="I83" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="J83" s="2" t="s">
+        <v>326</v>
       </c>
       <c r="K83" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="L83" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M83" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N83" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O83" t="s">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="P83">
         <v>61384399</v>
       </c>
       <c r="Q83" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R83" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S83" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T83" t="s">
+        <v>457</v>
+      </c>
+      <c r="U83" t="s">
+        <v>464</v>
+      </c>
+      <c r="V83" t="b">
+        <v>1</v>
+      </c>
+      <c r="W83" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23">
       <c r="A84">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="B84" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C84">
-        <v>0.66666669</v>
+        <v>1</v>
       </c>
       <c r="D84">
-        <v>7.177334299999999</v>
+        <v>22.264</v>
       </c>
       <c r="E84" t="s">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="F84" t="s">
         <v>172</v>
       </c>
       <c r="G84" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="H84" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="I84" t="s">
-        <v>290</v>
-      </c>
-      <c r="J84" s="2" t="s">
-        <v>332</v>
+        <v>283</v>
       </c>
       <c r="K84" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="L84" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M84" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N84" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O84" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P84">
         <v>61384399</v>
       </c>
       <c r="Q84" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R84" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S84" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T84" t="s">
+        <v>457</v>
+      </c>
+      <c r="U84" t="s">
+        <v>464</v>
+      </c>
+      <c r="V84" t="b">
+        <v>1</v>
+      </c>
+      <c r="W84" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23">
       <c r="A85">
         <v>2014</v>
       </c>
       <c r="B85" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
       <c r="D85">
-        <v>6.622258199999999</v>
+        <v>8.930518199999998</v>
       </c>
       <c r="E85" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="F85" t="s">
         <v>173</v>
       </c>
       <c r="G85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H85" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I85" t="s">
-        <v>290</v>
-      </c>
-      <c r="J85" s="2" t="s">
-        <v>333</v>
+        <v>283</v>
       </c>
       <c r="K85" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="L85" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M85" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N85" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O85" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P85">
         <v>61384399</v>
       </c>
       <c r="Q85" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R85" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S85" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T85" t="s">
+        <v>457</v>
+      </c>
+      <c r="U85" t="s">
+        <v>464</v>
+      </c>
+      <c r="V85" t="b">
+        <v>0</v>
+      </c>
+      <c r="W85" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23">
       <c r="A86">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B86" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
       <c r="D86">
-        <v>13.124317</v>
+        <v>13.191</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>80</v>
       </c>
       <c r="F86" t="s">
         <v>174</v>
       </c>
       <c r="G86" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H86" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="I86" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K86" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="L86" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M86" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N86" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O86" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P86">
         <v>61384399</v>
       </c>
       <c r="Q86" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R86" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S86" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T86" t="s">
+        <v>457</v>
+      </c>
+      <c r="U86" t="s">
+        <v>464</v>
+      </c>
+      <c r="V86" t="b">
+        <v>1</v>
+      </c>
+      <c r="W86" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23">
       <c r="A87">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B87" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87">
-        <v>6.622258199999999</v>
+        <v>8.0000591</v>
       </c>
       <c r="E87" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="F87" t="s">
         <v>175</v>
       </c>
       <c r="G87" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="H87" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="I87" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="J87" s="2" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="K87" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="L87" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M87" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N87" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O87" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P87">
         <v>61384399</v>
       </c>
       <c r="Q87" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R87" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S87" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T87" t="s">
+        <v>455</v>
+      </c>
+      <c r="U87" t="s">
+        <v>464</v>
+      </c>
+      <c r="V87" t="b">
+        <v>1</v>
+      </c>
+      <c r="W87" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23">
       <c r="A88">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B88" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
       <c r="D88">
-        <v>22.264</v>
+        <v>13.444</v>
       </c>
       <c r="E88" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s">
         <v>176</v>
       </c>
       <c r="G88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H88" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I88" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="K88" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="L88" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M88" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N88" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O88" t="s">
-        <v>458</v>
+        <v>445</v>
       </c>
       <c r="P88">
         <v>61384399</v>
       </c>
       <c r="Q88" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R88" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S88" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T88" t="s">
+        <v>457</v>
+      </c>
+      <c r="U88" t="s">
+        <v>464</v>
+      </c>
+      <c r="V88" t="b">
+        <v>1</v>
+      </c>
+      <c r="W88" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23">
       <c r="A89">
         <v>2014</v>
       </c>
       <c r="B89" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>0.2857143</v>
       </c>
       <c r="D89">
-        <v>8.930518199999998</v>
+        <v>4.796206</v>
       </c>
       <c r="E89" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F89" t="s">
         <v>177</v>
       </c>
       <c r="G89" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="H89" t="s">
-        <v>258</v>
+        <v>273</v>
       </c>
       <c r="I89" t="s">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="J89" s="2" t="s">
+        <v>328</v>
       </c>
       <c r="K89" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="L89" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M89" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N89" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O89" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="P89">
         <v>61384399</v>
       </c>
       <c r="Q89" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R89" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S89" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T89" t="s">
+        <v>462</v>
+      </c>
+      <c r="U89" t="s">
+        <v>466</v>
+      </c>
+      <c r="V89" t="b">
+        <v>0</v>
+      </c>
+      <c r="W89" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23">
       <c r="A90">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="D90">
-        <v>13.191</v>
+        <v>5.508081</v>
       </c>
       <c r="E90" t="s">
-        <v>80</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
         <v>178</v>
       </c>
       <c r="G90" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="I90" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J90" s="2" t="s">
+        <v>329</v>
       </c>
       <c r="K90" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="L90" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M90" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N90" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O90" t="s">
+        <v>446</v>
+      </c>
+      <c r="P90">
+        <v>61384399</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>451</v>
+      </c>
+      <c r="R90" t="s">
+        <v>452</v>
+      </c>
+      <c r="S90" t="s">
+        <v>453</v>
+      </c>
+      <c r="T90" t="s">
         <v>458</v>
       </c>
-      <c r="P90">
-        <v>61384399</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>463</v>
-      </c>
-      <c r="R90" t="s">
-        <v>464</v>
-      </c>
-      <c r="S90" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19">
+      <c r="U90" t="s">
+        <v>464</v>
+      </c>
+      <c r="V90" t="b">
+        <v>0</v>
+      </c>
+      <c r="W90" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23">
       <c r="A91">
         <v>2015</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D91">
-        <v>8.0000591</v>
+        <v>7.6857848</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F91" t="s">
         <v>179</v>
       </c>
       <c r="G91" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="H91" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="I91" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J91" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K91" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="L91" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M91" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N91" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O91" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P91">
         <v>61384399</v>
       </c>
       <c r="Q91" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R91" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S91" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T91" t="s">
+        <v>458</v>
+      </c>
+      <c r="U91" t="s">
+        <v>464</v>
+      </c>
+      <c r="V91" t="b">
+        <v>0</v>
+      </c>
+      <c r="W91" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23">
       <c r="A92">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
       <c r="D92">
-        <v>13.444</v>
+        <v>9.6072311</v>
       </c>
       <c r="E92" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F92" t="s">
         <v>180</v>
       </c>
       <c r="G92" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H92" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="I92" t="s">
-        <v>290</v>
+        <v>282</v>
+      </c>
+      <c r="J92" s="2" t="s">
+        <v>331</v>
       </c>
       <c r="K92" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="L92" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M92" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N92" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O92" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="P92">
         <v>61384399</v>
       </c>
       <c r="Q92" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R92" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S92" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T92" t="s">
+        <v>455</v>
+      </c>
+      <c r="U92" t="s">
+        <v>464</v>
+      </c>
+      <c r="V92" t="b">
+        <v>0</v>
+      </c>
+      <c r="W92" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23">
       <c r="A93">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C93">
-        <v>0.2857143</v>
+        <v>0.25</v>
       </c>
       <c r="D93">
-        <v>4.796206</v>
+        <v>4.5966239</v>
       </c>
       <c r="E93" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F93" t="s">
         <v>181</v>
       </c>
       <c r="G93" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H93" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="I93" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J93" s="2" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="K93" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="L93" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M93" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N93" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O93" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="P93">
         <v>61384399</v>
       </c>
       <c r="Q93" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R93" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S93" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T93" t="s">
+        <v>458</v>
+      </c>
+      <c r="U93" t="s">
+        <v>464</v>
+      </c>
+      <c r="V93" t="b">
+        <v>1</v>
+      </c>
+      <c r="W93" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23">
       <c r="A94">
         <v>2015</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C94">
-        <v>0.5</v>
+        <v>0.66666669</v>
       </c>
       <c r="D94">
-        <v>5.508081</v>
+        <v>13.933276</v>
       </c>
       <c r="E94" t="s">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="F94" t="s">
         <v>182</v>
       </c>
       <c r="G94" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
       <c r="H94" t="s">
-        <v>280</v>
+        <v>240</v>
       </c>
       <c r="I94" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="K94" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="L94" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M94" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N94" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O94" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P94">
         <v>61384399</v>
       </c>
       <c r="Q94" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R94" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S94" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T94" t="s">
+        <v>458</v>
+      </c>
+      <c r="U94" t="s">
+        <v>464</v>
+      </c>
+      <c r="V94" t="b">
+        <v>1</v>
+      </c>
+      <c r="W94" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23">
       <c r="A95">
         <v>2015</v>
       </c>
       <c r="B95" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C95">
-        <v>0.80000001</v>
+        <v>1</v>
       </c>
       <c r="D95">
-        <v>7.6857848</v>
+        <v>19.528746</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="F95" t="s">
         <v>183</v>
       </c>
       <c r="G95" t="s">
-        <v>210</v>
+        <v>229</v>
       </c>
       <c r="H95" t="s">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="I95" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J95" s="2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="K95" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="L95" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M95" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N95" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O95" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
       <c r="P95">
         <v>61384399</v>
       </c>
       <c r="Q95" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R95" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S95" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T95" t="s">
+        <v>455</v>
+      </c>
+      <c r="U95" t="s">
+        <v>464</v>
+      </c>
+      <c r="V95" t="b">
+        <v>0</v>
+      </c>
+      <c r="W95" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23">
       <c r="A96">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="B96" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C96">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D96">
-        <v>9.6072311</v>
+        <v>22.726</v>
       </c>
       <c r="E96" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F96" t="s">
         <v>184</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="H96" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="I96" t="s">
-        <v>289</v>
-      </c>
-      <c r="J96" s="2" t="s">
-        <v>339</v>
+        <v>282</v>
       </c>
       <c r="K96" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="L96" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M96" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N96" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O96" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P96">
         <v>61384399</v>
       </c>
       <c r="Q96" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R96" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S96" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T96" t="s">
+        <v>455</v>
+      </c>
+      <c r="U96" t="s">
+        <v>464</v>
+      </c>
+      <c r="V96" t="b">
+        <v>0</v>
+      </c>
+      <c r="W96" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23">
       <c r="A97">
         <v>2015</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="D97">
-        <v>4.5966239</v>
+        <v>12.847535</v>
       </c>
       <c r="E97" t="s">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="F97" t="s">
         <v>185</v>
       </c>
       <c r="G97" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="H97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="I97" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="K97" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="L97" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M97" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N97" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O97" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P97">
         <v>61384399</v>
       </c>
       <c r="Q97" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R97" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S97" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T97" t="s">
+        <v>458</v>
+      </c>
+      <c r="U97" t="s">
+        <v>464</v>
+      </c>
+      <c r="V97" t="b">
+        <v>1</v>
+      </c>
+      <c r="W97" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23">
       <c r="A98">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B98" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C98">
         <v>0.66666669</v>
       </c>
       <c r="D98">
-        <v>13.933276</v>
+        <v>9.0039768</v>
       </c>
       <c r="E98" t="s">
-        <v>85</v>
+        <v>33</v>
       </c>
       <c r="F98" t="s">
         <v>186</v>
       </c>
       <c r="G98" t="s">
-        <v>203</v>
+        <v>231</v>
       </c>
       <c r="H98" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="I98" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="J98" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="K98" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="L98" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M98" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N98" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O98" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P98">
         <v>61384399</v>
       </c>
       <c r="Q98" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R98" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S98" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T98" t="s">
+        <v>458</v>
+      </c>
+      <c r="U98" t="s">
+        <v>464</v>
+      </c>
+      <c r="V98" t="b">
+        <v>1</v>
+      </c>
+      <c r="W98" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23">
       <c r="A99">
         <v>2015</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C99">
         <v>1</v>
       </c>
       <c r="D99">
-        <v>19.528746</v>
+        <v>8.5334234</v>
       </c>
       <c r="E99" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F99" t="s">
         <v>187</v>
       </c>
       <c r="G99" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="H99" t="s">
+        <v>241</v>
+      </c>
+      <c r="I99" t="s">
         <v>282</v>
       </c>
-      <c r="I99" t="s">
-        <v>289</v>
-      </c>
       <c r="J99" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K99" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="L99" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M99" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N99" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O99" t="s">
-        <v>456</v>
+        <v>446</v>
       </c>
       <c r="P99">
         <v>61384399</v>
       </c>
       <c r="Q99" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R99" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S99" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T99" t="s">
+        <v>458</v>
+      </c>
+      <c r="U99" t="s">
+        <v>464</v>
+      </c>
+      <c r="V99" t="b">
+        <v>1</v>
+      </c>
+      <c r="W99" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23">
       <c r="A100">
-        <v>2011</v>
+        <v>2014</v>
       </c>
       <c r="B100" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C100">
-        <v>0.80000001</v>
+        <v>1</v>
       </c>
       <c r="D100">
-        <v>22.726</v>
+        <v>11.376028</v>
       </c>
       <c r="E100" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="F100" t="s">
         <v>188</v>
       </c>
       <c r="G100" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="H100" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="I100" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="K100" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="L100" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M100" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N100" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O100" t="s">
-        <v>456</v>
+        <v>443</v>
       </c>
       <c r="P100">
         <v>61384399</v>
       </c>
       <c r="Q100" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R100" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S100" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="101" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T100" t="s">
+        <v>455</v>
+      </c>
+      <c r="U100" t="s">
+        <v>464</v>
+      </c>
+      <c r="V100" t="b">
+        <v>1</v>
+      </c>
+      <c r="W100" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23">
       <c r="A101">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B101" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C101">
-        <v>1</v>
+        <v>0.80000001</v>
       </c>
       <c r="D101">
-        <v>12.847535</v>
+        <v>10.813752</v>
       </c>
       <c r="E101" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F101" t="s">
         <v>189</v>
       </c>
       <c r="G101" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="H101" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="I101" t="s">
-        <v>289</v>
-      </c>
-      <c r="J101" s="2" t="s">
-        <v>343</v>
+        <v>282</v>
       </c>
       <c r="K101" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="L101" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M101" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N101" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O101" t="s">
-        <v>459</v>
+        <v>446</v>
       </c>
       <c r="P101">
         <v>61384399</v>
       </c>
       <c r="Q101" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R101" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S101" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19">
+        <v>453</v>
+      </c>
+      <c r="T101" t="s">
+        <v>458</v>
+      </c>
+      <c r="U101" t="s">
+        <v>464</v>
+      </c>
+      <c r="V101" t="b">
+        <v>0</v>
+      </c>
+      <c r="W101" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23">
       <c r="A102">
         <v>2014</v>
       </c>
       <c r="B102" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C102">
         <v>0.66666669</v>
       </c>
       <c r="D102">
-        <v>9.0039768</v>
+        <v>6.0599761</v>
       </c>
       <c r="E102" t="s">
-        <v>30</v>
+        <v>89</v>
       </c>
       <c r="F102" t="s">
         <v>190</v>
       </c>
       <c r="G102" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H102" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="I102" t="s">
-        <v>289</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>344</v>
+        <v>283</v>
       </c>
       <c r="K102" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="L102" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="M102" t="s">
-        <v>452</v>
+        <v>440</v>
       </c>
       <c r="N102" t="s">
-        <v>453</v>
+        <v>441</v>
       </c>
       <c r="O102" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="P102">
         <v>61384399</v>
       </c>
       <c r="Q102" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="R102" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="S102" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19">
-      <c r="A103">
-        <v>2015</v>
-      </c>
-      <c r="B103" t="s">
-        <v>19</v>
-      </c>
-      <c r="C103">
-        <v>1</v>
-      </c>
-      <c r="D103">
-        <v>8.5334234</v>
-      </c>
-      <c r="E103" t="s">
-        <v>88</v>
-      </c>
-      <c r="F103" t="s">
-        <v>191</v>
-      </c>
-      <c r="G103" t="s">
-        <v>204</v>
-      </c>
-      <c r="H103" t="s">
-        <v>247</v>
-      </c>
-      <c r="I103" t="s">
-        <v>289</v>
-      </c>
-      <c r="J103" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="K103" t="s">
-        <v>447</v>
-      </c>
-      <c r="L103" t="s">
-        <v>451</v>
-      </c>
-      <c r="M103" t="s">
-        <v>452</v>
-      </c>
-      <c r="N103" t="s">
-        <v>453</v>
-      </c>
-      <c r="O103" t="s">
-        <v>459</v>
-      </c>
-      <c r="P103">
-        <v>61384399</v>
-      </c>
-      <c r="Q103" t="s">
-        <v>463</v>
-      </c>
-      <c r="R103" t="s">
-        <v>464</v>
-      </c>
-      <c r="S103" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="104" spans="1:19">
-      <c r="A104">
-        <v>2014</v>
-      </c>
-      <c r="B104" t="s">
-        <v>20</v>
-      </c>
-      <c r="C104">
-        <v>1</v>
-      </c>
-      <c r="D104">
-        <v>11.376028</v>
-      </c>
-      <c r="E104" t="s">
-        <v>23</v>
-      </c>
-      <c r="F104" t="s">
-        <v>192</v>
-      </c>
-      <c r="G104" t="s">
-        <v>216</v>
-      </c>
-      <c r="H104" t="s">
-        <v>261</v>
-      </c>
-      <c r="I104" t="s">
-        <v>289</v>
-      </c>
-      <c r="K104" t="s">
-        <v>448</v>
-      </c>
-      <c r="L104" t="s">
-        <v>451</v>
-      </c>
-      <c r="M104" t="s">
-        <v>452</v>
-      </c>
-      <c r="N104" t="s">
-        <v>453</v>
-      </c>
-      <c r="O104" t="s">
-        <v>456</v>
-      </c>
-      <c r="P104">
-        <v>61384399</v>
-      </c>
-      <c r="Q104" t="s">
-        <v>463</v>
-      </c>
-      <c r="R104" t="s">
-        <v>464</v>
-      </c>
-      <c r="S104" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="105" spans="1:19">
-      <c r="A105">
-        <v>2014</v>
-      </c>
-      <c r="B105" t="s">
-        <v>20</v>
-      </c>
-      <c r="C105">
-        <v>0.80000001</v>
-      </c>
-      <c r="D105">
-        <v>10.813752</v>
-      </c>
-      <c r="E105" t="s">
-        <v>31</v>
-      </c>
-      <c r="F105" t="s">
-        <v>193</v>
-      </c>
-      <c r="G105" t="s">
-        <v>210</v>
-      </c>
-      <c r="H105" t="s">
-        <v>258</v>
-      </c>
-      <c r="I105" t="s">
-        <v>289</v>
-      </c>
-      <c r="K105" t="s">
-        <v>449</v>
-      </c>
-      <c r="L105" t="s">
-        <v>451</v>
-      </c>
-      <c r="M105" t="s">
-        <v>452</v>
-      </c>
-      <c r="N105" t="s">
-        <v>453</v>
-      </c>
-      <c r="O105" t="s">
-        <v>459</v>
-      </c>
-      <c r="P105">
-        <v>61384399</v>
-      </c>
-      <c r="Q105" t="s">
-        <v>463</v>
-      </c>
-      <c r="R105" t="s">
-        <v>464</v>
-      </c>
-      <c r="S105" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19">
-      <c r="A106">
-        <v>2014</v>
-      </c>
-      <c r="B106" t="s">
-        <v>20</v>
-      </c>
-      <c r="C106">
-        <v>0.66666669</v>
-      </c>
-      <c r="D106">
-        <v>6.0599761</v>
-      </c>
-      <c r="E106" t="s">
-        <v>89</v>
-      </c>
-      <c r="F106" t="s">
-        <v>194</v>
-      </c>
-      <c r="G106" t="s">
-        <v>237</v>
-      </c>
-      <c r="H106" t="s">
-        <v>286</v>
-      </c>
-      <c r="I106" t="s">
-        <v>290</v>
-      </c>
-      <c r="K106" t="s">
-        <v>450</v>
-      </c>
-      <c r="L106" t="s">
-        <v>451</v>
-      </c>
-      <c r="M106" t="s">
-        <v>452</v>
-      </c>
-      <c r="N106" t="s">
-        <v>453</v>
-      </c>
-      <c r="O106" t="s">
-        <v>458</v>
-      </c>
-      <c r="P106">
-        <v>61384399</v>
-      </c>
-      <c r="Q106" t="s">
-        <v>463</v>
-      </c>
-      <c r="R106" t="s">
-        <v>464</v>
-      </c>
-      <c r="S106" t="s">
-        <v>465</v>
+        <v>453</v>
+      </c>
+      <c r="T102" t="s">
+        <v>457</v>
+      </c>
+      <c r="U102" t="s">
+        <v>464</v>
+      </c>
+      <c r="V102" t="b">
+        <v>0</v>
+      </c>
+      <c r="W102" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="J3" r:id="rId1"/>
-    <hyperlink ref="J4" r:id="rId2"/>
-    <hyperlink ref="J9" r:id="rId3"/>
-    <hyperlink ref="J11" r:id="rId4"/>
+    <hyperlink ref="J8" r:id="rId2"/>
+    <hyperlink ref="J10" r:id="rId3"/>
+    <hyperlink ref="J13" r:id="rId4"/>
     <hyperlink ref="J14" r:id="rId5"/>
-    <hyperlink ref="J15" r:id="rId6"/>
-    <hyperlink ref="J20" r:id="rId7"/>
-    <hyperlink ref="J21" r:id="rId8"/>
+    <hyperlink ref="J18" r:id="rId6"/>
+    <hyperlink ref="J19" r:id="rId7"/>
+    <hyperlink ref="J20" r:id="rId8"/>
     <hyperlink ref="J22" r:id="rId9"/>
-    <hyperlink ref="J24" r:id="rId10"/>
-    <hyperlink ref="J28" r:id="rId11"/>
+    <hyperlink ref="J26" r:id="rId10"/>
+    <hyperlink ref="J27" r:id="rId11"/>
     <hyperlink ref="J29" r:id="rId12"/>
-    <hyperlink ref="J31" r:id="rId13"/>
-    <hyperlink ref="J35" r:id="rId14"/>
-    <hyperlink ref="J36" r:id="rId15"/>
-    <hyperlink ref="J37" r:id="rId16"/>
-    <hyperlink ref="J38" r:id="rId17"/>
-    <hyperlink ref="J39" r:id="rId18"/>
+    <hyperlink ref="J33" r:id="rId13"/>
+    <hyperlink ref="J34" r:id="rId14"/>
+    <hyperlink ref="J35" r:id="rId15"/>
+    <hyperlink ref="J36" r:id="rId16"/>
+    <hyperlink ref="J37" r:id="rId17"/>
+    <hyperlink ref="J38" r:id="rId18"/>
     <hyperlink ref="J40" r:id="rId19"/>
-    <hyperlink ref="J41" r:id="rId20"/>
-    <hyperlink ref="J43" r:id="rId21"/>
-    <hyperlink ref="J46" r:id="rId22"/>
-    <hyperlink ref="J47" r:id="rId23"/>
+    <hyperlink ref="J43" r:id="rId20"/>
+    <hyperlink ref="J44" r:id="rId21"/>
+    <hyperlink ref="J45" r:id="rId22"/>
+    <hyperlink ref="J46" r:id="rId23"/>
     <hyperlink ref="J48" r:id="rId24"/>
     <hyperlink ref="J49" r:id="rId25"/>
-    <hyperlink ref="J51" r:id="rId26"/>
-    <hyperlink ref="J52" r:id="rId27"/>
-    <hyperlink ref="J56" r:id="rId28"/>
+    <hyperlink ref="J53" r:id="rId26"/>
+    <hyperlink ref="J54" r:id="rId27"/>
+    <hyperlink ref="J55" r:id="rId28"/>
     <hyperlink ref="J57" r:id="rId29"/>
     <hyperlink ref="J58" r:id="rId30"/>
-    <hyperlink ref="J61" r:id="rId31"/>
-    <hyperlink ref="J62" r:id="rId32"/>
-    <hyperlink ref="J70" r:id="rId33"/>
-    <hyperlink ref="J72" r:id="rId34"/>
-    <hyperlink ref="J73" r:id="rId35"/>
+    <hyperlink ref="J66" r:id="rId31"/>
+    <hyperlink ref="J68" r:id="rId32"/>
+    <hyperlink ref="J69" r:id="rId33"/>
+    <hyperlink ref="J70" r:id="rId34"/>
+    <hyperlink ref="J71" r:id="rId35" location="page=101"/>
     <hyperlink ref="J74" r:id="rId36"/>
-    <hyperlink ref="J75" r:id="rId37" location="page=101"/>
+    <hyperlink ref="J77" r:id="rId37"/>
     <hyperlink ref="J78" r:id="rId38"/>
-    <hyperlink ref="J81" r:id="rId39"/>
-    <hyperlink ref="J82" r:id="rId40"/>
-    <hyperlink ref="J84" r:id="rId41"/>
-    <hyperlink ref="J85" r:id="rId42"/>
-    <hyperlink ref="J87" r:id="rId43"/>
-    <hyperlink ref="J91" r:id="rId44"/>
-    <hyperlink ref="J93" r:id="rId45"/>
-    <hyperlink ref="J94" r:id="rId46"/>
-    <hyperlink ref="J95" r:id="rId47"/>
-    <hyperlink ref="J96" r:id="rId48"/>
-    <hyperlink ref="J97" r:id="rId49"/>
-    <hyperlink ref="J98" r:id="rId50"/>
-    <hyperlink ref="J99" r:id="rId51"/>
-    <hyperlink ref="J101" r:id="rId52"/>
-    <hyperlink ref="J102" r:id="rId53"/>
-    <hyperlink ref="J103" r:id="rId54"/>
+    <hyperlink ref="J80" r:id="rId39"/>
+    <hyperlink ref="J81" r:id="rId40"/>
+    <hyperlink ref="J83" r:id="rId41"/>
+    <hyperlink ref="J87" r:id="rId42"/>
+    <hyperlink ref="J89" r:id="rId43"/>
+    <hyperlink ref="J90" r:id="rId44"/>
+    <hyperlink ref="J91" r:id="rId45"/>
+    <hyperlink ref="J92" r:id="rId46"/>
+    <hyperlink ref="J93" r:id="rId47"/>
+    <hyperlink ref="J94" r:id="rId48"/>
+    <hyperlink ref="J95" r:id="rId49"/>
+    <hyperlink ref="J97" r:id="rId50"/>
+    <hyperlink ref="J98" r:id="rId51"/>
+    <hyperlink ref="J99" r:id="rId52"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/xls/VŠE-Fakulta mezinárodních vztahů_All.xlsx
+++ b/xls/VŠE-Fakulta mezinárodních vztahů_All.xlsx
@@ -79,10 +79,10 @@
     <t>Record_FOS_category</t>
   </si>
   <si>
-    <t>IsLocalJournal</t>
-  </si>
-  <si>
-    <t>IsPredatoryJournal</t>
+    <t>Místní časopis</t>
+  </si>
+  <si>
+    <t>Predátorský časopis</t>
   </si>
   <si>
     <t>Jimp</t>
